--- a/马萧萧高中成绩/成绩趋势.xlsx
+++ b/马萧萧高中成绩/成绩趋势.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\james_home\local_src\codebase\马萧萧高中成绩\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16F8CDC-C332-46B4-8969-4CAF22E1CCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-16245" yWindow="-21720" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="学考" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="平时成绩" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="学考" sheetId="1" r:id="rId1"/>
+    <sheet name="平时成绩" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,83 +26,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
-    <t xml:space="preserve">历史</t>
+    <t>历史</t>
   </si>
   <si>
-    <t xml:space="preserve">地理</t>
+    <t>地理</t>
   </si>
   <si>
-    <t xml:space="preserve">化学</t>
+    <t>化学</t>
   </si>
   <si>
-    <t xml:space="preserve">生物</t>
+    <t>生物</t>
   </si>
   <si>
-    <t xml:space="preserve">一上期中</t>
+    <t>一上期中</t>
   </si>
   <si>
-    <t xml:space="preserve">一上期末</t>
+    <t>一上期末</t>
   </si>
   <si>
-    <t xml:space="preserve">一下开学考</t>
+    <t>一下开学考</t>
   </si>
   <si>
-    <t xml:space="preserve">一下期中</t>
+    <t>一下期中</t>
   </si>
   <si>
-    <t xml:space="preserve">一下期末</t>
+    <t>一下期末</t>
   </si>
   <si>
-    <t xml:space="preserve">语文</t>
+    <t>语文</t>
   </si>
   <si>
-    <t xml:space="preserve">数学</t>
+    <t>数学</t>
   </si>
   <si>
-    <t xml:space="preserve">英语</t>
+    <t>英语</t>
   </si>
   <si>
-    <t xml:space="preserve">物理</t>
+    <t>物理</t>
   </si>
   <si>
-    <t xml:space="preserve">政治</t>
+    <t>政治</t>
   </si>
   <si>
-    <t xml:space="preserve">技术</t>
+    <t>技术</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -107,40 +96,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF595959"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +118,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -160,65 +126,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Corner" xfId="20"/>
-    <cellStyle name="Pivot Table Field" xfId="21"/>
-    <cellStyle name="Pivot Table Value" xfId="22"/>
+    <cellStyle name="Pivot Table Corner" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Pivot Table Field" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Pivot Table Value" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -277,15 +203,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -294,7 +238,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1600" spc="114" strike="noStrike">
+              <a:defRPr sz="1600" b="1" strike="noStrike" spc="114">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -302,7 +246,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1600" spc="114" strike="noStrike">
+              <a:rPr sz="1600" b="1" strike="noStrike" spc="114">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -328,10 +272,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0424331616384597"/>
+          <c:x val="4.2433161638459699E-2"/>
           <c:y val="0.181460369163952"/>
           <c:w val="0.944952521111462"/>
-          <c:h val="0.756311074918567"/>
+          <c:h val="0.75631107491856697"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -352,12 +296,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="22320">
+            <a:ln w="22320" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -367,24 +308,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -393,8 +341,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -402,9 +351,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>学考!$B$1:$I$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -430,8 +380,8 @@
                 <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -455,6 +405,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25D4-4929-A686-7DA5B6A9969D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -471,12 +426,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="22320">
+            <a:ln w="22320" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -486,24 +438,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -512,8 +471,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -521,9 +481,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>学考!$B$1:$I$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -549,8 +510,8 @@
                 <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -574,6 +535,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25D4-4929-A686-7DA5B6A9969D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -590,12 +556,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="22320">
+            <a:ln w="22320" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -605,24 +568,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -631,8 +601,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -640,9 +611,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>学考!$B$1:$I$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -668,8 +640,8 @@
                 <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -693,6 +665,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-25D4-4929-A686-7DA5B6A9969D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -709,12 +686,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="22320">
+            <a:ln w="22320" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -724,24 +698,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -750,8 +731,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -759,9 +741,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>学考!$B$1:$I$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -787,8 +770,8 @@
                 <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -812,7 +795,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-25D4-4929-A686-7DA5B6A9969D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -821,6 +817,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="9427996"/>
         <c:axId val="75322893"/>
       </c:lineChart>
@@ -835,7 +832,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -848,7 +845,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -858,13 +855,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="800" spc="114" strike="noStrike">
+              <a:defRPr sz="800" b="0" strike="noStrike" spc="114">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="75322893"/>
@@ -888,7 +886,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -898,13 +896,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="9427996"/>
@@ -932,40 +931,50 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -984,9 +993,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -1004,16 +1010,23 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1022,10 +1035,16 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1058,6 +1077,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDE5-4E45-9D7B-342F61671234}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1074,12 +1098,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1089,21 +1110,28 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1112,10 +1140,16 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1148,6 +1182,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDE5-4E45-9D7B-342F61671234}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1164,12 +1203,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="FFD320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1179,21 +1215,28 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="FFD320"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1202,10 +1245,16 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1238,6 +1287,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDE5-4E45-9D7B-342F61671234}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1254,12 +1308,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="579D1C"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1269,21 +1320,28 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="579D1C"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1292,10 +1350,16 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1328,6 +1392,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDE5-4E45-9D7B-342F61671234}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1344,12 +1413,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="7E0021"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1359,21 +1425,28 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="7E0021"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1382,10 +1455,16 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -1418,13 +1497,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BDE5-4E45-9D7B-342F61671234}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>平时成绩!$A$11</c:f>
+              <c:f>平时成绩!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1434,12 +1518,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff950e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="FF950E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1449,21 +1530,28 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="FF950E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1472,17 +1560,23 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>平时成绩!$B$11:$G$11</c:f>
+              <c:f>平时成绩!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1505,7 +1599,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BDE5-4E45-9D7B-342F61671234}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -1514,6 +1621,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="58311180"/>
         <c:axId val="60147372"/>
       </c:lineChart>
@@ -1531,7 +1639,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1540,10 +1648,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="60147372"/>
@@ -1564,7 +1673,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1576,7 +1685,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1585,10 +1694,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="58311180"/>
@@ -1599,7 +1709,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -1618,29 +1728,36 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1654,14 +1771,20 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4048200" y="2105280"/>
-        <a:ext cx="10273680" cy="5304600"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1675,28 +1798,34 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>480600</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>745560</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:colOff>741750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>15270</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2108880" y="1989000"/>
-        <a:ext cx="18174240" cy="8596440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1709,143 +1838,427 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC21" activeCellId="0" sqref="AC21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="n">
+    <row r="1" spans="1:9">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="n">
+      <c r="I1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>82</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>83</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>88</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>73</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>92</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>89</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>90</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>84</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>86</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>66</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>81</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>91</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>72</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>50</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>70</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="2">
         <v>44544</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1861,238 +2274,168 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>133</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>187</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>57</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>176</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>501</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>208</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>284</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>555</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>179</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>157</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>301</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>355</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>164</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>101</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>172</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>308</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>97</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>67</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>212</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>78</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>144</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>297</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>243</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>61</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>205</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>91</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>252</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>141</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>115</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>306</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>178</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>351</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>296</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>384</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>425</v>
+      </c>
+      <c r="C7">
+        <v>460</v>
+      </c>
+      <c r="D7">
+        <v>272</v>
+      </c>
+      <c r="E7">
+        <v>228</v>
+      </c>
+      <c r="F7">
+        <v>295</v>
+      </c>
+      <c r="G7">
         <v>340</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>425</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>272</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>228</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>168</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>170</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>152</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>328</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>422</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>286</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>264</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>484</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B8">
         <v>36</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C8">
         <v>78</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D8">
         <v>175</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E8">
         <v>326</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F8">
         <v>180</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/马萧萧高中成绩/成绩趋势.xlsx
+++ b/马萧萧高中成绩/成绩趋势.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\james_home\local_src\codebase\马萧萧高中成绩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16F8CDC-C332-46B4-8969-4CAF22E1CCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FFC94C-DC1E-4820-BA38-38061BA435C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16245" yWindow="-21720" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学考" sheetId="1" r:id="rId1"/>
@@ -26,18 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>化学</t>
-  </si>
-  <si>
-    <t>生物</t>
   </si>
   <si>
     <t>一上期中</t>
@@ -71,6 +62,18 @@
   </si>
   <si>
     <t>技术</t>
+  </si>
+  <si>
+    <t>二上10月份</t>
+  </si>
+  <si>
+    <t>高二上</t>
+  </si>
+  <si>
+    <t>高二下</t>
+  </si>
+  <si>
+    <t>高三1/6月份</t>
   </si>
 </sst>
 </file>
@@ -117,12 +120,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -132,10 +150,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,7 +270,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1600" b="1" strike="noStrike" spc="114">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" strike="noStrike" spc="114">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -286,11 +310,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>学考!$A$2</c:f>
+              <c:f>学考!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>历史</c:v>
+                  <c:v>物理</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -352,7 +376,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>学考!$B$1:$I$1</c:f>
+              <c:f>学考!$C$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -385,22 +409,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>学考!$B$2:$I$2</c:f>
+              <c:f>学考!$C$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>73</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -416,11 +428,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>学考!$A$3</c:f>
+              <c:f>学考!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>地理</c:v>
+                  <c:v>政治</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -482,7 +494,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>学考!$B$1:$I$1</c:f>
+              <c:f>学考!$C$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -515,22 +527,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>学考!$B$3:$I$3</c:f>
+              <c:f>学考!$C$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -542,145 +542,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>学考!$A$4</c:f>
+              <c:f>学考!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>化学</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22320" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="A5A5A5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="A5A5A5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="808080"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>学考!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>学考!$B$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-25D4-4929-A686-7DA5B6A9969D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>学考!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>生物</c:v>
+                  <c:v>技术</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -742,7 +612,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>学考!$B$1:$I$1</c:f>
+              <c:f>学考!$C$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -775,22 +645,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>学考!$B$5:$I$5</c:f>
+              <c:f>学考!$C$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -798,6 +656,195 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-25D4-4929-A686-7DA5B6A9969D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>学考!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>语文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>学考!$C$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>学考!$C$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CC9-43B2-977B-BD27380E1C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>学考!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数学</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>学考!$C$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>学考!$C$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CC9-43B2-977B-BD27380E1C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>学考!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>英语</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>学考!$C$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>学考!$C$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8CC9-43B2-977B-BD27380E1C18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1760,16 +1807,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371520</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>562020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>143055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2135,109 +2182,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1" s="3">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1" s="3">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1" s="3">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1" s="3">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1" s="3">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>82</v>
-      </c>
-      <c r="C2">
-        <v>83</v>
-      </c>
-      <c r="D2">
-        <v>88</v>
-      </c>
-      <c r="E2">
-        <v>73</v>
-      </c>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>92</v>
-      </c>
-      <c r="C3">
-        <v>89</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3">
-        <v>84</v>
-      </c>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>86</v>
-      </c>
-      <c r="C4">
-        <v>66</v>
-      </c>
-      <c r="D4">
-        <v>81</v>
-      </c>
-      <c r="E4">
-        <v>91</v>
-      </c>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>72</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-      <c r="E5">
-        <v>78</v>
-      </c>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -2246,37 +2348,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2">
         <v>44544</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>133</v>
@@ -2297,9 +2402,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>284</v>
@@ -2320,9 +2425,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>164</v>
@@ -2343,9 +2448,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>212</v>
@@ -2366,9 +2471,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>205</v>
@@ -2389,9 +2494,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>425</v>
@@ -2412,9 +2517,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>36</v>

--- a/马萧萧高中成绩/成绩趋势.xlsx
+++ b/马萧萧高中成绩/成绩趋势.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\james_home\local_src\codebase\马萧萧高中成绩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FFC94C-DC1E-4820-BA38-38061BA435C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE154088-D2B9-425C-A069-A394BDCF3455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16230" yWindow="-21720" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学考" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>化学</t>
   </si>
@@ -155,11 +155,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,10 +1098,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>平时成绩!$B$2:$G$2</c:f>
+              <c:f>平时成绩!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>133</c:v>
                 </c:pt>
@@ -1119,6 +1119,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,10 +1206,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>平时成绩!$B$3:$G$3</c:f>
+              <c:f>平时成绩!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>284</c:v>
                 </c:pt>
@@ -1224,6 +1227,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,10 +1314,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>平时成绩!$B$4:$G$4</c:f>
+              <c:f>平时成绩!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>164</c:v>
                 </c:pt>
@@ -1329,6 +1335,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,10 +1422,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>平时成绩!$B$5:$G$5</c:f>
+              <c:f>平时成绩!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>212</c:v>
                 </c:pt>
@@ -1434,6 +1443,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,10 +1530,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>平时成绩!$B$6:$G$6</c:f>
+              <c:f>平时成绩!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>205</c:v>
                 </c:pt>
@@ -1539,6 +1551,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,7 +1570,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>平时成绩!$A$8</c:f>
+              <c:f>平时成绩!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1623,10 +1638,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>平时成绩!$B$8:$G$8</c:f>
+              <c:f>平时成绩!$B$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -1641,6 +1656,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,16 +1869,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>480600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482505</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>741750</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>15270</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>81945</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2184,13 +2205,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2221,11 +2242,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3"/>
@@ -2237,9 +2258,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3"/>
@@ -2251,9 +2272,9 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2263,11 +2284,11 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3"/>
@@ -2279,9 +2300,9 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3"/>
@@ -2293,9 +2314,9 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3"/>
@@ -2319,11 +2340,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3"/>
@@ -2348,13 +2369,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="2" t="s">
@@ -2379,7 +2400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2401,8 +2422,11 @@
       <c r="G2">
         <v>208</v>
       </c>
+      <c r="H2">
+        <v>187</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2424,8 +2448,11 @@
       <c r="G3">
         <v>355</v>
       </c>
+      <c r="H3">
+        <v>187</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2447,8 +2474,11 @@
       <c r="G4">
         <v>67</v>
       </c>
+      <c r="H4">
+        <v>187</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2470,8 +2500,11 @@
       <c r="G5">
         <v>61</v>
       </c>
+      <c r="H5">
+        <v>428</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2493,48 +2526,34 @@
       <c r="G6">
         <v>306</v>
       </c>
+      <c r="H6">
+        <v>428</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>425</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="E7">
-        <v>228</v>
+        <v>326</v>
       </c>
       <c r="F7">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="G7">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>78</v>
-      </c>
-      <c r="D8">
-        <v>175</v>
-      </c>
-      <c r="E8">
-        <v>326</v>
-      </c>
-      <c r="F8">
         <v>180</v>
+      </c>
+      <c r="H7">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/马萧萧高中成绩/成绩趋势.xlsx
+++ b/马萧萧高中成绩/成绩趋势.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\james_home\local_src\codebase\马萧萧高中成绩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4D0329-3620-4F43-B229-D111F1E7187E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB2A84-D482-48EA-BD35-341B36C6C042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>化学</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>总分</t>
+  </si>
+  <si>
+    <t>三上G12模拟</t>
   </si>
 </sst>
 </file>
@@ -290,11 +293,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -315,6 +375,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>二下期末</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>三上G12模拟</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -345,6 +408,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -394,11 +460,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -419,6 +542,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>二下期末</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>三上G12模拟</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -449,6 +575,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,11 +627,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -523,6 +709,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>二下期末</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>三上G12模拟</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -553,6 +742,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,11 +794,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -627,6 +876,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>二下期末</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>三上G12模拟</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -657,6 +909,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,11 +961,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -731,6 +1043,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>二下期末</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>三上G12模拟</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -761,6 +1076,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,11 +1128,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -835,6 +1210,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>二下期末</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>三上G12模拟</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -865,6 +1243,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,7 +1635,7 @@
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -1275,6 +1656,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>二下期末</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>三上G12模拟</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1305,6 +1689,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>582.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1802,7 @@
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -1436,6 +1823,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>二下期末</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>三上G12模拟</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1466,6 +1856,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3140,10 +3533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -3153,9 +3546,10 @@
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3177,8 +3571,11 @@
       <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3203,8 +3600,11 @@
       <c r="H2">
         <v>103</v>
       </c>
+      <c r="I2">
+        <v>104</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3229,8 +3629,11 @@
       <c r="H3">
         <v>83</v>
       </c>
+      <c r="I3">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3255,8 +3658,11 @@
       <c r="H4">
         <v>127.5</v>
       </c>
+      <c r="I4">
+        <v>124</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3281,8 +3687,11 @@
       <c r="H5">
         <v>90</v>
       </c>
+      <c r="I5">
+        <v>81</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3307,8 +3716,11 @@
       <c r="H6">
         <v>81</v>
       </c>
+      <c r="I6">
+        <v>94</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3333,8 +3745,11 @@
       <c r="H7">
         <v>98</v>
       </c>
+      <c r="I7">
+        <v>85</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3366,8 +3781,11 @@
         <f>SUM(H2:H7)</f>
         <v>582.5</v>
       </c>
+      <c r="I8">
+        <v>578</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3391,6 +3809,9 @@
       </c>
       <c r="H9">
         <v>476</v>
+      </c>
+      <c r="I9">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3402,4 +3823,10 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{4327cfd9-47ed-48f1-9376-4ab3148935bb}" enabled="1" method="Privileged" siteId="{5d471751-9675-428d-917b-70f44f9630b0}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/马萧萧高中成绩/成绩趋势.xlsx
+++ b/马萧萧高中成绩/成绩趋势.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\james_home\local_src\codebase\马萧萧高中成绩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB2A84-D482-48EA-BD35-341B36C6C042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D826543A-7D65-4658-9B84-3F89F099E1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="平时成绩" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>化学</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>三上G12模拟</t>
+  </si>
+  <si>
+    <t>三上G12</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -378,6 +381,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>三上G12模拟</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>三上G12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -411,6 +417,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,7 +530,7 @@
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -545,6 +554,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>三上G12模拟</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>三上G12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -578,6 +590,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,7 +703,7 @@
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -712,6 +727,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>三上G12模拟</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>三上G12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -745,6 +763,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,7 +876,7 @@
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -879,6 +900,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>三上G12模拟</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>三上G12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -912,6 +936,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1049,7 @@
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -1046,6 +1073,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>三上G12模拟</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>三上G12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1079,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,7 +1222,7 @@
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -1213,6 +1246,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>三上G12模拟</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>三上G12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1246,6 +1282,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,7 +1674,7 @@
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -1659,6 +1698,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>三上G12模拟</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>三上G12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1692,6 +1734,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>580</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,7 +1847,7 @@
             <c:strRef>
               <c:f>平时成绩!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>二上10月份</c:v>
                 </c:pt>
@@ -1826,6 +1871,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>三上G12模拟</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>三上G12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1859,6 +1907,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,10 +3584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -3549,7 +3600,7 @@
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3574,8 +3625,11 @@
       <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3603,8 +3657,11 @@
       <c r="I2">
         <v>104</v>
       </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3632,8 +3689,11 @@
       <c r="I3">
         <v>90</v>
       </c>
+      <c r="J3">
+        <v>83.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3721,11 @@
       <c r="I4">
         <v>124</v>
       </c>
+      <c r="J4">
+        <v>128.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3690,8 +3753,11 @@
       <c r="I5">
         <v>81</v>
       </c>
+      <c r="J5">
+        <v>93</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3719,8 +3785,11 @@
       <c r="I6">
         <v>94</v>
       </c>
+      <c r="J6">
+        <v>84</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3748,8 +3817,11 @@
       <c r="I7">
         <v>85</v>
       </c>
+      <c r="J7">
+        <v>91</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3784,8 +3856,11 @@
       <c r="I8">
         <v>578</v>
       </c>
+      <c r="J8">
+        <v>580</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3812,6 +3887,9 @@
       </c>
       <c r="I9">
         <v>356</v>
+      </c>
+      <c r="J9">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
